--- a/natmiOut/OldD7/LR-pairs_lrc2p/Artn-Ret.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Artn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.12131722901007</v>
+        <v>2.306751666666667</v>
       </c>
       <c r="H2">
-        <v>2.12131722901007</v>
+        <v>6.920255</v>
       </c>
       <c r="I2">
-        <v>0.8697445297252138</v>
+        <v>0.8617934705859058</v>
       </c>
       <c r="J2">
-        <v>0.8697445297252138</v>
+        <v>0.8617934705859057</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.935036530834684</v>
+        <v>1.273058</v>
       </c>
       <c r="N2">
-        <v>0.935036530834684</v>
+        <v>3.819174</v>
       </c>
       <c r="O2">
-        <v>0.1523686121291135</v>
+        <v>0.1826308343983922</v>
       </c>
       <c r="P2">
-        <v>0.1523686121291135</v>
+        <v>0.1826308343983922</v>
       </c>
       <c r="Q2">
-        <v>1.983509102613421</v>
+        <v>2.936628663263333</v>
       </c>
       <c r="R2">
-        <v>1.983509102613421</v>
+        <v>26.42965796937</v>
       </c>
       <c r="S2">
-        <v>0.1325217669011193</v>
+        <v>0.1573900606121903</v>
       </c>
       <c r="T2">
-        <v>0.1325217669011193</v>
+        <v>0.1573900606121902</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +593,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.12131722901007</v>
+        <v>2.306751666666667</v>
       </c>
       <c r="H3">
-        <v>2.12131722901007</v>
+        <v>6.920255</v>
       </c>
       <c r="I3">
-        <v>0.8697445297252138</v>
+        <v>0.8617934705859058</v>
       </c>
       <c r="J3">
-        <v>0.8697445297252138</v>
+        <v>0.8617934705859057</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.6631592194024</v>
+        <v>5.094146333333334</v>
       </c>
       <c r="N3">
-        <v>4.6631592194024</v>
+        <v>15.282439</v>
       </c>
       <c r="O3">
-        <v>0.7598837852497177</v>
+        <v>0.7307979647464429</v>
       </c>
       <c r="P3">
-        <v>0.7598837852497177</v>
+        <v>0.7307979647464428</v>
       </c>
       <c r="Q3">
-        <v>9.892039993735459</v>
+        <v>11.75093054466056</v>
       </c>
       <c r="R3">
-        <v>9.892039993735459</v>
+        <v>105.758374901945</v>
       </c>
       <c r="S3">
-        <v>0.6609047654478311</v>
+        <v>0.6297969143359534</v>
       </c>
       <c r="T3">
-        <v>0.6609047654478311</v>
+        <v>0.6297969143359533</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +652,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.12131722901007</v>
+        <v>2.306751666666667</v>
       </c>
       <c r="H4">
-        <v>2.12131722901007</v>
+        <v>6.920255</v>
       </c>
       <c r="I4">
-        <v>0.8697445297252138</v>
+        <v>0.8617934705859058</v>
       </c>
       <c r="J4">
-        <v>0.8697445297252138</v>
+        <v>0.8617934705859057</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.538478449055067</v>
+        <v>0.012811</v>
       </c>
       <c r="N4">
-        <v>0.538478449055067</v>
+        <v>0.038433</v>
       </c>
       <c r="O4">
-        <v>0.08774760262116882</v>
+        <v>0.00183784526665541</v>
       </c>
       <c r="P4">
-        <v>0.08774760262116882</v>
+        <v>0.00183784526665541</v>
       </c>
       <c r="Q4">
-        <v>1.142283611431135</v>
+        <v>0.02955179560166667</v>
       </c>
       <c r="R4">
-        <v>1.142283611431135</v>
+        <v>0.265966160415</v>
       </c>
       <c r="S4">
-        <v>0.07631799737626341</v>
+        <v>0.001583843050750845</v>
       </c>
       <c r="T4">
-        <v>0.07631799737626341</v>
+        <v>0.001583843050750845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,55 +714,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.317694637704719</v>
+        <v>2.306751666666667</v>
       </c>
       <c r="H5">
-        <v>0.317694637704719</v>
+        <v>6.920255</v>
       </c>
       <c r="I5">
-        <v>0.1302554702747862</v>
+        <v>0.8617934705859058</v>
       </c>
       <c r="J5">
-        <v>0.1302554702747862</v>
+        <v>0.8617934705859057</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.935036530834684</v>
+        <v>0.5906476666666668</v>
       </c>
       <c r="N5">
-        <v>0.935036530834684</v>
+        <v>1.771943</v>
       </c>
       <c r="O5">
-        <v>0.1523686121291135</v>
+        <v>0.08473335558850956</v>
       </c>
       <c r="P5">
-        <v>0.1523686121291135</v>
+        <v>0.08473335558850954</v>
       </c>
       <c r="Q5">
-        <v>0.2970560919042022</v>
+        <v>1.362477489496111</v>
       </c>
       <c r="R5">
-        <v>0.2970560919042022</v>
+        <v>12.262297405465</v>
       </c>
       <c r="S5">
-        <v>0.01984684522799417</v>
+        <v>0.07302265258701131</v>
       </c>
       <c r="T5">
-        <v>0.01984684522799417</v>
+        <v>0.07302265258701129</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.317694637704719</v>
+        <v>0.3699356666666667</v>
       </c>
       <c r="H6">
-        <v>0.317694637704719</v>
+        <v>1.109807</v>
       </c>
       <c r="I6">
-        <v>0.1302554702747862</v>
+        <v>0.1382065294140942</v>
       </c>
       <c r="J6">
-        <v>0.1302554702747862</v>
+        <v>0.1382065294140942</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.6631592194024</v>
+        <v>1.273058</v>
       </c>
       <c r="N6">
-        <v>4.6631592194024</v>
+        <v>3.819174</v>
       </c>
       <c r="O6">
-        <v>0.7598837852497177</v>
+        <v>0.1826308343983922</v>
       </c>
       <c r="P6">
-        <v>0.7598837852497177</v>
+        <v>0.1826308343983922</v>
       </c>
       <c r="Q6">
-        <v>1.481460678767466</v>
+        <v>0.4709495599353333</v>
       </c>
       <c r="R6">
-        <v>1.481460678767466</v>
+        <v>4.238546039418</v>
       </c>
       <c r="S6">
-        <v>0.09897901980188663</v>
+        <v>0.02524077378620196</v>
       </c>
       <c r="T6">
-        <v>0.09897901980188663</v>
+        <v>0.02524077378620196</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,55 +838,179 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.3699356666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.109807</v>
+      </c>
+      <c r="I7">
+        <v>0.1382065294140942</v>
+      </c>
+      <c r="J7">
+        <v>0.1382065294140942</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.094146333333334</v>
+      </c>
+      <c r="N7">
+        <v>15.282439</v>
+      </c>
+      <c r="O7">
+        <v>0.7307979647464429</v>
+      </c>
+      <c r="P7">
+        <v>0.7307979647464428</v>
+      </c>
+      <c r="Q7">
+        <v>1.884506419919222</v>
+      </c>
+      <c r="R7">
+        <v>16.960557779273</v>
+      </c>
+      <c r="S7">
+        <v>0.1010010504104894</v>
+      </c>
+      <c r="T7">
+        <v>0.1010010504104894</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.317694637704719</v>
-      </c>
-      <c r="H7">
-        <v>0.317694637704719</v>
-      </c>
-      <c r="I7">
-        <v>0.1302554702747862</v>
-      </c>
-      <c r="J7">
-        <v>0.1302554702747862</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.538478449055067</v>
-      </c>
-      <c r="N7">
-        <v>0.538478449055067</v>
-      </c>
-      <c r="O7">
-        <v>0.08774760262116882</v>
-      </c>
-      <c r="P7">
-        <v>0.08774760262116882</v>
-      </c>
-      <c r="Q7">
-        <v>0.1710717157843485</v>
-      </c>
-      <c r="R7">
-        <v>0.1710717157843485</v>
-      </c>
-      <c r="S7">
-        <v>0.01142960524490541</v>
-      </c>
-      <c r="T7">
-        <v>0.01142960524490541</v>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3699356666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.109807</v>
+      </c>
+      <c r="I8">
+        <v>0.1382065294140942</v>
+      </c>
+      <c r="J8">
+        <v>0.1382065294140942</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.012811</v>
+      </c>
+      <c r="N8">
+        <v>0.038433</v>
+      </c>
+      <c r="O8">
+        <v>0.00183784526665541</v>
+      </c>
+      <c r="P8">
+        <v>0.00183784526665541</v>
+      </c>
+      <c r="Q8">
+        <v>0.004739245825666667</v>
+      </c>
+      <c r="R8">
+        <v>0.042653212431</v>
+      </c>
+      <c r="S8">
+        <v>0.0002540022159045647</v>
+      </c>
+      <c r="T8">
+        <v>0.0002540022159045647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3699356666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.109807</v>
+      </c>
+      <c r="I9">
+        <v>0.1382065294140942</v>
+      </c>
+      <c r="J9">
+        <v>0.1382065294140942</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5906476666666668</v>
+      </c>
+      <c r="N9">
+        <v>1.771943</v>
+      </c>
+      <c r="O9">
+        <v>0.08473335558850956</v>
+      </c>
+      <c r="P9">
+        <v>0.08473335558850954</v>
+      </c>
+      <c r="Q9">
+        <v>0.2185016383334445</v>
+      </c>
+      <c r="R9">
+        <v>1.966514745001</v>
+      </c>
+      <c r="S9">
+        <v>0.01171070300149825</v>
+      </c>
+      <c r="T9">
+        <v>0.01171070300149825</v>
       </c>
     </row>
   </sheetData>
